--- a/DisenioEstructurasMolinaPesceOstrovsky.xlsx
+++ b/DisenioEstructurasMolinaPesceOstrovsky.xlsx
@@ -1,24 +1,85 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FDB591D-D2DF-429A-8410-3FF32308C602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="EstructuraDatos" sheetId="1" r:id="rId1"/>
+    <sheet name="programaMolinaPesceOstrovsky" sheetId="1" r:id="rId1"/>
+    <sheet name="Estructuras wordix.php" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="173">
+  <si>
+    <t>Nombres</t>
+  </si>
+  <si>
+    <t>Apellidos</t>
+  </si>
+  <si>
+    <t>Legajos</t>
+  </si>
+  <si>
+    <t>Emails</t>
+  </si>
+  <si>
+    <t>Carrera</t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t>Matias Nicolas</t>
+  </si>
+  <si>
+    <t>Pesce</t>
+  </si>
+  <si>
+    <t>FAI-4594</t>
+  </si>
+  <si>
+    <t>matias.pesce@est.fi.uncoma.edu.ar</t>
+  </si>
+  <si>
+    <t>TUDW</t>
+  </si>
+  <si>
+    <t>Niicoph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Link: </t>
+  </si>
+  <si>
+    <t>https://github.com/Niicoph/Wordix</t>
+  </si>
   <si>
     <t>$coleccionPalabras=</t>
   </si>
   <si>
+    <t>//indices</t>
+  </si>
+  <si>
     <t>MUJER</t>
   </si>
   <si>
@@ -37,38 +98,464 @@
     <t>GATOS</t>
   </si>
   <si>
+    <t>GOTAS</t>
+  </si>
+  <si>
+    <t>HUEVO</t>
+  </si>
+  <si>
+    <t>TINTO</t>
+  </si>
+  <si>
+    <t>NAVES</t>
+  </si>
+  <si>
+    <t>VERDE</t>
+  </si>
+  <si>
+    <t>MELON</t>
+  </si>
+  <si>
+    <t>YUYOS</t>
+  </si>
+  <si>
+    <t>PIANO</t>
+  </si>
+  <si>
+    <t>PISOS</t>
+  </si>
+  <si>
+    <t>CRUDO</t>
+  </si>
+  <si>
+    <t>RANGO</t>
+  </si>
+  <si>
+    <t>FARDO</t>
+  </si>
+  <si>
+    <t>BRAZO</t>
+  </si>
+  <si>
+    <t>MUNDO</t>
+  </si>
+  <si>
+    <t>//valores</t>
+  </si>
+  <si>
+    <t>Información de la estructura:</t>
+  </si>
+  <si>
+    <t>Tipo: Indexado (los índices son numéricos)</t>
+  </si>
+  <si>
     <t>Tipos de datos: Almacena valores String</t>
   </si>
   <si>
-    <t>Tipo: Indexado (los índices son numéricos)</t>
-  </si>
-  <si>
-    <t>Información de la estructura:</t>
-  </si>
-  <si>
-    <t>//indices</t>
-  </si>
-  <si>
-    <t>//valores</t>
-  </si>
-  <si>
-    <t>**** COMPLETAR ****</t>
-  </si>
-  <si>
-    <t>Ejemplo de cómo representar las estructuras de datos según lo visto en teoría:</t>
-  </si>
-  <si>
-    <t>A continuación puede agregar el resto de las estructuras de datos</t>
-  </si>
-  <si>
     <t>¿Para qué se utiliza?: guarda las palabras que se pueden elegidas para jugar wordix</t>
+  </si>
+  <si>
+    <t>$coleccionPartidas=</t>
+  </si>
+  <si>
+    <t>"palabraWordix"</t>
+  </si>
+  <si>
+    <t>"QUESO"</t>
+  </si>
+  <si>
+    <t>"MUJER"</t>
+  </si>
+  <si>
+    <t>"CASAS"</t>
+  </si>
+  <si>
+    <t>"RASGO"</t>
+  </si>
+  <si>
+    <t>"BRAZO"</t>
+  </si>
+  <si>
+    <t>"FARDO"</t>
+  </si>
+  <si>
+    <t>"CRUDO"</t>
+  </si>
+  <si>
+    <t>"RANGO"</t>
+  </si>
+  <si>
+    <t>"MUNDO"</t>
+  </si>
+  <si>
+    <t>"VERDE"</t>
+  </si>
+  <si>
+    <t>"jugador"</t>
+  </si>
+  <si>
+    <t>"JUAN"</t>
+  </si>
+  <si>
+    <t>"PABLO"</t>
+  </si>
+  <si>
+    <t>"CAMILA"</t>
+  </si>
+  <si>
+    <t>"JOSE"</t>
+  </si>
+  <si>
+    <t>"JULIO"</t>
+  </si>
+  <si>
+    <t>"MARTINA"</t>
+  </si>
+  <si>
+    <t>"PAULA"</t>
+  </si>
+  <si>
+    <t>"intentos"</t>
+  </si>
+  <si>
+    <t>"puntaje"</t>
+  </si>
+  <si>
+    <t>//claves</t>
+  </si>
+  <si>
+    <t>Tipos de datos: Almacena valores String e Int</t>
+  </si>
+  <si>
+    <t>¿Para qué se utiliza?: guarda las partidas que se han jugado.</t>
+  </si>
+  <si>
+    <t>$resumen</t>
+  </si>
+  <si>
+    <t>"partidas"</t>
+  </si>
+  <si>
+    <t>"victorias"</t>
+  </si>
+  <si>
+    <t>"intento1"</t>
+  </si>
+  <si>
+    <t>"intento2"</t>
+  </si>
+  <si>
+    <t>"intento3"</t>
+  </si>
+  <si>
+    <t>"intento4"</t>
+  </si>
+  <si>
+    <t>"intento5"</t>
+  </si>
+  <si>
+    <t>"intento6"</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>Tipo: Asociativo. (los indices son claves)</t>
+  </si>
+  <si>
+    <t>FAI-4572</t>
+  </si>
+  <si>
+    <t>joaquin.molina@est.fi.uncoma.edu.ar</t>
+  </si>
+  <si>
+    <t>Molina</t>
+  </si>
+  <si>
+    <t>Joaquin Gabriel</t>
+  </si>
+  <si>
+    <t>JoaMolina7</t>
+  </si>
+  <si>
+    <t>axel.ostrovsky@est.fi.uncoma.edu.ar</t>
+  </si>
+  <si>
+    <t>FAI-4744</t>
+  </si>
+  <si>
+    <t>axelost2005</t>
+  </si>
+  <si>
+    <t>Axel Ian</t>
+  </si>
+  <si>
+    <t>Ostrovsky</t>
+  </si>
+  <si>
+    <t>$teclado</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Ñ</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>ESTADO_LETRA_DISPONIBLE</t>
+  </si>
+  <si>
+    <t>Tipos de datos: Almacenan una constante String</t>
+  </si>
+  <si>
+    <t>Tipo: Asociativo (los indices son claves)</t>
+  </si>
+  <si>
+    <t>Tipo: Multidimensional (los arreglos de adentro son asociativos)</t>
+  </si>
+  <si>
+    <t>¿Para qué se utiliza?: guarda el resumen de cada jugador.</t>
+  </si>
+  <si>
+    <t>¿Para qué se utiliza?: guarda la constante "ESTADO_LETRA_DISPONIBLE" en cada letra, para que al comienzo del juego, todas se consideren disponibles.</t>
+  </si>
+  <si>
+    <t>$ordenTeclado</t>
+  </si>
+  <si>
+    <t>"salto"</t>
+  </si>
+  <si>
+    <t>"T"</t>
+  </si>
+  <si>
+    <t>"R"</t>
+  </si>
+  <si>
+    <t>"E"</t>
+  </si>
+  <si>
+    <t>"W"</t>
+  </si>
+  <si>
+    <t>"Q"</t>
+  </si>
+  <si>
+    <t>"Y"</t>
+  </si>
+  <si>
+    <t>"U"</t>
+  </si>
+  <si>
+    <t>"I"</t>
+  </si>
+  <si>
+    <t>"O"</t>
+  </si>
+  <si>
+    <t>"P"</t>
+  </si>
+  <si>
+    <t>"A"</t>
+  </si>
+  <si>
+    <t>"D"</t>
+  </si>
+  <si>
+    <t>"F"</t>
+  </si>
+  <si>
+    <t>"G"</t>
+  </si>
+  <si>
+    <t>"H"</t>
+  </si>
+  <si>
+    <t>"J"</t>
+  </si>
+  <si>
+    <t>"K"</t>
+  </si>
+  <si>
+    <t>"L"</t>
+  </si>
+  <si>
+    <t>"Z"</t>
+  </si>
+  <si>
+    <t>"X"</t>
+  </si>
+  <si>
+    <t>"C"</t>
+  </si>
+  <si>
+    <t>"V"</t>
+  </si>
+  <si>
+    <t>"B"</t>
+  </si>
+  <si>
+    <t>"N"</t>
+  </si>
+  <si>
+    <t>"M"</t>
+  </si>
+  <si>
+    <t>"S"</t>
+  </si>
+  <si>
+    <t>Tipo: Indexado (los indices son numéricos)</t>
+  </si>
+  <si>
+    <t>Tipos de datos: Almacenan un string</t>
+  </si>
+  <si>
+    <t>¿Para qué se utiliza?: se utiliza para mostrar el orden con el que se deben mostrar en pantalla.</t>
+  </si>
+  <si>
+    <t>$estructuraPalabraIntento</t>
+  </si>
+  <si>
+    <t>"letra"</t>
+  </si>
+  <si>
+    <t>"estado"</t>
+  </si>
+  <si>
+    <t>ESTADO_LETRA_PERTENECE</t>
+  </si>
+  <si>
+    <t>ESTADO_LETRA_ENCONTRADA</t>
+  </si>
+  <si>
+    <t>ESTADO_LETRA_DESCARTADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipos de datos: Almacena valores String </t>
+  </si>
+  <si>
+    <t>¿Para qué se utiliza?: se le asigna un ESTADO a cada letra, dependiendo de cada palabra Wordix.</t>
+  </si>
+  <si>
+    <t>Tipo: Multidimensional (arreglo indexado de arreglos asociativos)</t>
+  </si>
+  <si>
+    <t>Tipo: Multidimensional (arreglo indexado, de arreglos indexados de arreglos asociativos)</t>
+  </si>
+  <si>
+    <t>¿Para qué se utiliza?: guarda todos los arreglos del arreglo $estructuraPalabraIntento</t>
+  </si>
+  <si>
+    <t>$arregloPuntajeLetras</t>
+  </si>
+  <si>
+    <t>Tipo: Asociativo. (los indices son las letras del alfabeto)</t>
+  </si>
+  <si>
+    <t>Tipos de datos: Almacenan un int</t>
+  </si>
+  <si>
+    <t>¿Para qué se utiliza?: se utiliza para asignarle a cada letra un valor numérico. Se basa en las condiciones que se presentaron para el cálculo del puntaje de cada jugador.</t>
+  </si>
+  <si>
+    <t>$estructuraIntentosWordix</t>
+  </si>
+  <si>
+    <t>$partida</t>
+  </si>
+  <si>
+    <t>"PERRO"</t>
+  </si>
+  <si>
+    <t>LIONEL</t>
+  </si>
+  <si>
+    <t>Tipos de datos: Almacenan variables String e Int</t>
+  </si>
+  <si>
+    <t>¿Para qué se utiliza?: se asignan todos los datos de una partida.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,16 +594,135 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFABB2BF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -143,39 +749,256 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="4"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="3" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
+    <cellStyle name="Bueno" xfId="2" builtinId="26"/>
+    <cellStyle name="Énfasis4" xfId="5" builtinId="41"/>
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Notas" xfId="4" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -222,7 +1045,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -254,9 +1077,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -288,6 +1129,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -463,110 +1322,2366 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L33" sqref="A31:L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="4"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="4"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="23">
         <v>0</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C12" s="23">
+        <v>1</v>
+      </c>
+      <c r="D12" s="23">
+        <v>2</v>
+      </c>
+      <c r="E12" s="23">
+        <v>3</v>
+      </c>
+      <c r="F12" s="23">
+        <v>4</v>
+      </c>
+      <c r="G12" s="23">
+        <v>5</v>
+      </c>
+      <c r="H12" s="23">
+        <v>6</v>
+      </c>
+      <c r="I12" s="23">
+        <v>7</v>
+      </c>
+      <c r="J12" s="23">
+        <v>8</v>
+      </c>
+      <c r="K12" s="23">
+        <v>9</v>
+      </c>
+      <c r="L12" s="23">
+        <v>10</v>
+      </c>
+      <c r="M12" s="23">
+        <v>11</v>
+      </c>
+      <c r="N12" s="23">
+        <v>12</v>
+      </c>
+      <c r="O12" s="23">
+        <v>13</v>
+      </c>
+      <c r="P12" s="23">
+        <v>14</v>
+      </c>
+      <c r="Q12" s="23">
+        <v>15</v>
+      </c>
+      <c r="R12" s="23">
+        <v>16</v>
+      </c>
+      <c r="S12" s="23">
+        <v>17</v>
+      </c>
+      <c r="T12" s="23">
+        <v>18</v>
+      </c>
+      <c r="U12" s="23">
+        <v>19</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="37"/>
+      <c r="B13" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q13" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="R13" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="S13" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="T13" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="U13" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="V13" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="23">
         <v>0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C20" s="23">
         <v>1</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D20" s="23">
         <v>2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E20" s="23">
         <v>3</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F20" s="23">
         <v>4</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G20" s="23">
         <v>5</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H20" s="23">
+        <v>6</v>
+      </c>
+      <c r="I20" s="23">
+        <v>7</v>
+      </c>
+      <c r="J20" s="23">
+        <v>8</v>
+      </c>
+      <c r="K20" s="23">
+        <v>9</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1">
+        <v>5</v>
+      </c>
+      <c r="H23" s="1">
+        <v>6</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>6</v>
+      </c>
+      <c r="K23" s="1">
+        <v>6</v>
+      </c>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="1">
+        <v>15</v>
+      </c>
+      <c r="C24" s="1">
+        <v>13</v>
+      </c>
+      <c r="D24" s="1">
+        <v>13</v>
+      </c>
+      <c r="E24" s="1">
+        <v>16</v>
+      </c>
+      <c r="F24" s="1">
+        <v>15</v>
+      </c>
+      <c r="G24" s="1">
+        <v>11</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>15</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="15"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+    </row>
+    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+    </row>
+    <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="J32" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="K32" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" s="37"/>
+      <c r="B33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="10">
+        <v>0</v>
+      </c>
+      <c r="L33" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="17"/>
+      <c r="B37" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38" s="17"/>
+      <c r="B38" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="4"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" s="17"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="4"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45" s="17"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A46" s="17"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A47" s="17"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="4"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A48" s="17"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="17"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="17"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="17"/>
+      <c r="B51" s="6"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="17"/>
+      <c r="B52" s="6"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="17"/>
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="17"/>
+      <c r="B54" s="8"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="17"/>
+      <c r="B55" s="8"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="17"/>
+      <c r="B56" s="8"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="17"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="17"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="4"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="17"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="4"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="17"/>
+      <c r="B60" s="3"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="17"/>
+      <c r="B61" s="8"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="17"/>
+      <c r="B62" s="8"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="17"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="17"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="17"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="17"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="17"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="17"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="17"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="17"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="17"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="17"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="17"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="17"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="17"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="17"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="17"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="17"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="17"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="17"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="17"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="17"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="17"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="17"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="17"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="17"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="17"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="17"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="17"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="17"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="17"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="17"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="17"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="17"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="17"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="17"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="17"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="17"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="17"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="17"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="17"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="17"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="17"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="17"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="17"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="17"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="17"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="17"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="17"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="17"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="17"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="17"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="17"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{35BC95B3-60BC-4E53-94FB-C7396BA648AB}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{BD2029A9-05B3-4770-9F80-C6026659EB1F}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{FC3D3963-0F3A-4AA9-BC3E-C966C880E5A2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DCE92D-A471-4D5B-A3F7-BD0F18B04C25}">
+  <dimension ref="A2:AL68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="28" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="B4" s="1" t="s">
+      <c r="F3" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="N11" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="O11" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="P11" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q11" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="R11" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="S11" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="T11" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="U11" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="V11" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="W11" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="X11" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y11" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z11" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA11" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB11" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="6"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A12" s="37"/>
+      <c r="B12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC12" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="35"/>
+    </row>
+    <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" s="39"/>
+      <c r="G15" s="35"/>
+    </row>
+    <row r="16" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="39"/>
+      <c r="G16" s="35"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B17" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="G18" s="35"/>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
+      <c r="AD19" s="16"/>
+      <c r="AE19" s="16"/>
+      <c r="AF19" s="16"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="23">
+        <v>0</v>
+      </c>
+      <c r="C20" s="23">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D20" s="23">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E20" s="23">
         <v>3</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F20" s="23">
         <v>4</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G20" s="23">
         <v>5</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H20" s="23">
         <v>6</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I20" s="23">
+        <v>7</v>
+      </c>
+      <c r="J20" s="23">
+        <v>8</v>
+      </c>
+      <c r="K20" s="23">
+        <v>9</v>
+      </c>
+      <c r="L20" s="23">
+        <v>10</v>
+      </c>
+      <c r="M20" s="23">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" t="s">
+      <c r="N20" s="23">
+        <v>12</v>
+      </c>
+      <c r="O20" s="23">
+        <v>13</v>
+      </c>
+      <c r="P20" s="23">
+        <v>14</v>
+      </c>
+      <c r="Q20" s="23">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
+      <c r="R20" s="23">
+        <v>16</v>
+      </c>
+      <c r="S20" s="23">
+        <v>17</v>
+      </c>
+      <c r="T20" s="23">
+        <v>18</v>
+      </c>
+      <c r="U20" s="23">
+        <v>19</v>
+      </c>
+      <c r="V20" s="23">
+        <v>20</v>
+      </c>
+      <c r="W20" s="23">
+        <v>21</v>
+      </c>
+      <c r="X20" s="23">
+        <v>22</v>
+      </c>
+      <c r="Y20" s="23">
+        <v>23</v>
+      </c>
+      <c r="Z20" s="23">
+        <v>24</v>
+      </c>
+      <c r="AA20" s="23">
+        <v>25</v>
+      </c>
+      <c r="AB20" s="23">
+        <v>26</v>
+      </c>
+      <c r="AC20" s="23">
+        <v>27</v>
+      </c>
+      <c r="AD20" s="23">
+        <v>28</v>
+      </c>
+      <c r="AE20" s="23">
+        <v>29</v>
+      </c>
+      <c r="AF20" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A21" s="37"/>
+      <c r="B21" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G21" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE21" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF21" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="35"/>
+    </row>
+    <row r="24" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="39"/>
+      <c r="G24" s="35"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G25" s="35"/>
+    </row>
+    <row r="26" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A29" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="B29" s="42"/>
+      <c r="C29" s="23">
+        <v>0</v>
+      </c>
+      <c r="D29" s="23">
+        <v>1</v>
+      </c>
+      <c r="E29" s="23">
+        <v>2</v>
+      </c>
+      <c r="F29" s="23">
+        <v>3</v>
+      </c>
+      <c r="G29" s="23">
+        <v>4</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A30" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="B30" s="43"/>
+      <c r="C30" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A31" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" s="43"/>
+      <c r="C31" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E31" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="F31" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="G31" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="I31" s="44"/>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A32" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="46"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" s="39"/>
+    </row>
+    <row r="35" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="D35" s="39"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C36" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="B39" s="42"/>
+      <c r="C39" s="23">
+        <v>0</v>
+      </c>
+      <c r="D39" s="23">
+        <v>1</v>
+      </c>
+      <c r="E39" s="23">
+        <v>2</v>
+      </c>
+      <c r="F39" s="23">
+        <v>3</v>
+      </c>
+      <c r="G39" s="23">
+        <v>4</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="48">
+        <v>0</v>
+      </c>
+      <c r="B40" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="49"/>
+      <c r="B41" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E41" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="F41" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="G41" s="45" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="48">
+        <v>1</v>
+      </c>
+      <c r="B42" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="49"/>
+      <c r="B43" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E43" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="F43" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="G43" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="H43" s="13"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="48">
+        <v>2</v>
+      </c>
+      <c r="B44" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="49"/>
+      <c r="B45" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E45" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="F45" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="G45" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="H45" s="13"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="51"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="52"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C48" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+    </row>
+    <row r="49" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="D49" s="39"/>
+    </row>
+    <row r="50" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="16"/>
+      <c r="Q52" s="16"/>
+      <c r="R52" s="16"/>
+      <c r="S52" s="16"/>
+      <c r="T52" s="16"/>
+      <c r="U52" s="16"/>
+      <c r="V52" s="16"/>
+      <c r="W52" s="16"/>
+      <c r="X52" s="16"/>
+      <c r="Y52" s="16"/>
+      <c r="Z52" s="16"/>
+      <c r="AA52" s="16"/>
+      <c r="AB52" s="16"/>
+      <c r="AC52" s="16"/>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A53" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="B53" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="G53" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="H53" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="I53" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="J53" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="K53" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="L53" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="M53" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="N53" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="O53" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="P53" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q53" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="R53" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="S53" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="T53" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="U53" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="V53" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="W53" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="X53" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y53" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z53" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA53" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB53" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC53" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A54" s="37"/>
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+      <c r="G54" s="1">
+        <v>2</v>
+      </c>
+      <c r="H54" s="1">
+        <v>2</v>
+      </c>
+      <c r="I54" s="1">
+        <v>2</v>
+      </c>
+      <c r="J54" s="1">
+        <v>2</v>
+      </c>
+      <c r="K54" s="1">
+        <v>2</v>
+      </c>
+      <c r="L54" s="1">
+        <v>2</v>
+      </c>
+      <c r="M54" s="1">
+        <v>2</v>
+      </c>
+      <c r="N54" s="1">
+        <v>2</v>
+      </c>
+      <c r="O54" s="1">
+        <v>2</v>
+      </c>
+      <c r="P54" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>3</v>
+      </c>
+      <c r="R54" s="1">
+        <v>3</v>
+      </c>
+      <c r="S54" s="1">
+        <v>3</v>
+      </c>
+      <c r="T54" s="1">
+        <v>3</v>
+      </c>
+      <c r="U54" s="1">
+        <v>3</v>
+      </c>
+      <c r="V54" s="1">
+        <v>3</v>
+      </c>
+      <c r="W54" s="1">
+        <v>3</v>
+      </c>
+      <c r="X54" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y54" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z54" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA54" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB54" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC54" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B56" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G56" s="35"/>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B57" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="C57" s="39"/>
+      <c r="G57" s="35"/>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B58" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C58" s="39"/>
+      <c r="G58" s="35"/>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B59" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="39"/>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A62" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D62" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E62" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A63" s="37"/>
+      <c r="B63" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D63" s="1">
+        <v>3</v>
+      </c>
+      <c r="E63" s="1">
+        <v>15</v>
+      </c>
+      <c r="F63" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G65" s="35"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" s="39"/>
+      <c r="G66" s="35"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="C67" s="39"/>
+      <c r="G67" s="35"/>
+    </row>
+    <row r="68" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="C68" s="39"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:I59"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="A29:B29"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{DA04F34E-3AE8-4E60-8A90-C72EAD035AF4}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{2B9DE39B-E11B-4E6C-9E53-6ED3B2EFC957}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{7A5145DD-5E50-4DBA-BBF2-B8F5CA60619B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>